--- a/Income/AMT_inc.xlsx
+++ b/Income/AMT_inc.xlsx
@@ -1973,7 +1973,7 @@
         <v>0.723</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.7188</v>
+        <v>0.7189</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0.7171</v>
@@ -1982,7 +1982,7 @@
         <v>0.7132</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.7075</v>
+        <v>0.7076</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.7166</v>
@@ -2106,10 +2106,10 @@
         <v>0.362</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.3621</v>
+        <v>0.3622</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.3546</v>
+        <v>0.3547</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.3102</v>
@@ -2360,10 +2360,10 @@
         <v>0.247</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.2456</v>
+        <v>0.2455</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.2491</v>
+        <v>0.249</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.2058</v>
@@ -2481,10 +2481,10 @@
         <v>0.3543</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.358</v>
+        <v>0.3579</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.3557</v>
+        <v>0.3556</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0.3586</v>
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.0</v>
+        <v>0.6024</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.5972</v>
@@ -3500,7 +3500,7 @@
         <v>0.6058</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.5991</v>
+        <v>0.5992</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0.5992</v>
@@ -3627,13 +3627,13 @@
         <v>0.4772</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.478</v>
+        <v>0.4779</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0.4855</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.4951</v>
+        <v>0.495</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.5164</v>
